--- a/errors.xlsx
+++ b/errors.xlsx
@@ -985,12 +985,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_05_04_R/02835.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2011_03_09_L/00156.mat</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_02_23_R/05826.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2011_09_26_R/02874.mat</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_L/03806.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2011_12_07_L/01740.mat</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_06_24_L/05572.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2011_08_24_L/01127.mat</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_03_02_L/04376.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_02_23_R/05826.mat</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_07_20_L/-00378.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2011_02_14_R/-00126.mat</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1105,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_09_14_L/05574.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_05_04_R/02835.mat</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_02_23_R/04540.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_L/03806.mat</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_L/03307.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_03_02_L/04376.mat</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_09_14_R/05197.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_06_24_L/05572.mat</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_09_14_R/02854.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_L/03307.mat</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2010_01_13_L/-00013.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_07_20_L/-00378.mat</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2010_02_04_R/04282.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_02_23_R/04540.mat</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_12_23_R/05191.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_09_14_L/05574.mat</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2011_02_02_L/04185.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_09_14_R/05197.mat</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2010_02_18_L/-01077.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_09_14_R/02854.mat</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2011_02_02_R/04869.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2010_02_04_R/04282.mat</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2011_02_10_R/02662.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2010_01_13_L/-00013.mat</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2011_02_10_R/00854.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2011_02_02_L/04185.mat</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2012_01_23_L/03197.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_12_23_R/05191.mat</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2011_02_02_R/04113.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2010_02_18_L/-01077.mat</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2012_02_05_L/06139.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2011_02_02_R/04869.mat</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2012_02_05_L/06641.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2011_02_10_R/02662.mat</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1445,12 +1445,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2009_01_14_L/-02118.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2011_02_02_R/04113.mat</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2009_02_23_L/03068.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2011_02_10_R/00854.mat</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2011_05_04_R/01730.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2012_01_23_L/03197.mat</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2009_07_20_R/-00726.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2012_02_05_L/06139.mat</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1525,12 +1525,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_R/03970.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2012_02_05_L/06641.mat</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2010_07_08_L/01565.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2009_01_14_L/-02118.mat</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2010_02_04_R/01423.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2009_02_23_L/03068.mat</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2009_09_21_R/02180.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2009_07_20_R/-00726.mat</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2011_03_09_L/00156.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2011_05_04_R/01730.mat</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2011_02_14_R/-00126.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2010_07_08_L/01565.mat</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2010_12_01_R/-03428.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2009_09_21_R/02180.mat</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2011_09_26_R/02874.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2010_02_04_R/01423.mat</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2011_08_24_L/01127.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_R/03970.mat</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2011_12_07_L/01740.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2010_12_01_R/-03428.mat</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">

--- a/errors.xlsx
+++ b/errors.xlsx
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2011_09_26_R/02874.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2011_12_07_L/01740.mat</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2011_12_07_L/01740.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2011_09_26_R/02874.mat</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2011_08_24_L/01127.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2011_02_14_R/-00126.mat</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1085,12 +1085,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2011_02_14_R/-00126.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2011_08_24_L/01127.mat</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1105,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_05_04_R/02835.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_03_02_L/04376.mat</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_L/03806.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_05_04_R/02835.mat</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_03_02_L/04376.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_L/03806.mat</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_L/03307.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_02_23_R/04540.mat</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_07_20_L/-00378.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_L/03307.mat</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1225,12 +1225,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_02_23_R/04540.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_07_20_L/-00378.mat</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2010_02_04_R/04282.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_12_23_R/05191.mat</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2011_02_02_L/04185.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2010_02_04_R/04282.mat</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_12_23_R/05191.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2010_02_18_L/-01077.mat</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2010_02_18_L/-01077.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2011_02_02_L/04185.mat</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1445,12 +1445,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2011_02_02_R/04113.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2011_02_10_R/00854.mat</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1465,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2011_02_10_R/00854.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2012_01_23_L/03197.mat</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2012_01_23_L/03197.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2011_02_02_R/04113.mat</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2009_01_14_L/-02118.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2009_02_23_L/03068.mat</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2009_02_23_L/03068.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2011_05_04_R/01730.mat</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2009_07_20_R/-00726.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2009_01_14_L/-02118.mat</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2011_05_04_R/01730.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2009_07_20_R/-00726.mat</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_VMNR/2009_09_21_R/02180.mat</t>
+          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_R/03970.mat</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Human_STN_Correct_All/STN_DLOR/2009_07_13_R/03970.mat</t>
+          <t>Human_STN_Correct_All/STN_VMNR/2009_09_21_R/02180.mat</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
